--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/minimum-specification.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/minimum-specification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SURFACEPRO4-NOR\data\metadb\OME\xml2RDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6ABD6C-75CB-4FB6-A201-BBAAE72263D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2FC430-3B3E-46CA-896F-4F102DBA3993}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5025" tabRatio="622" xr2:uid="{54B537C7-2841-4F36-B329-9186FD2FF737}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="622" xr2:uid="{54B537C7-2841-4F36-B329-9186FD2FF737}"/>
   </bookViews>
   <sheets>
     <sheet name="@prefix" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="91">
   <si>
     <t/>
   </si>
@@ -196,10 +196,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[bindata:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/PixelType#</t>
   </si>
   <si>
@@ -273,10 +269,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[pixels:image1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>pixelType:int8</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -323,6 +315,30 @@
   </si>
   <si>
     <t>xsd:nonNegativeLong</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/minimum-specification/pixels/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/minimum-specification/bindata/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:pixels1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata0</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -726,18 +742,18 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="89.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -745,7 +761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -753,7 +769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -761,7 +777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -769,7 +785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -777,7 +793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -785,7 +801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -793,7 +809,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -801,44 +817,60 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -854,17 +886,17 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -881,7 +913,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -892,7 +924,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -907,7 +939,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -924,18 +956,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -950,19 +982,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -973,7 +1005,7 @@
         <v>49</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>31</v>
@@ -997,7 +1029,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1012,7 +1044,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1021,45 +1053,45 @@
         <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>20</v>
@@ -1077,21 +1109,21 @@
         <v>20</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -1109,7 +1141,7 @@
         <v>2</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1125,18 +1157,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1147,7 +1179,7 @@
         <v>29</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>40</v>
@@ -1156,7 +1188,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1166,7 +1198,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1175,7 +1207,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>42</v>
@@ -1184,7 +1216,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1195,27 +1227,27 @@
         <v>36</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F5" s="1">
         <v>12</v>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/minimum-specification.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/minimum-specification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2FC430-3B3E-46CA-896F-4F102DBA3993}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACD0BC6-B0ED-4E3C-A7F1-D3ECD2DA9AF5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="622" xr2:uid="{54B537C7-2841-4F36-B329-9186FD2FF737}"/>
   </bookViews>
@@ -30,9 +30,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="91">
   <si>
-    <t/>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/</t>
   </si>
   <si>
@@ -93,21 +90,12 @@
     <t>xsd:positiveInteger</t>
   </si>
   <si>
-    <t>:Image</t>
-  </si>
-  <si>
     <t>Image</t>
   </si>
   <si>
     <t>pixels</t>
   </si>
   <si>
-    <t>:pixels</t>
-  </si>
-  <si>
-    <t>:Pixels</t>
-  </si>
-  <si>
     <t>Pixels</t>
   </si>
   <si>
@@ -135,15 +123,9 @@
     <t>size y</t>
   </si>
   <si>
-    <t>:bigEndian</t>
-  </si>
-  <si>
     <t>xsd:boolean</t>
   </si>
   <si>
-    <t>:BinData</t>
-  </si>
-  <si>
     <t>Binary Data</t>
   </si>
   <si>
@@ -153,12 +135,6 @@
     <t>data</t>
   </si>
   <si>
-    <t>:length</t>
-  </si>
-  <si>
-    <t>:data</t>
-  </si>
-  <si>
     <t>xsd:base64Binary</t>
   </si>
   <si>
@@ -202,50 +178,6 @@
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/DimensionOrder#</t>
   </si>
   <si>
-    <t>:dimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeZ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:binData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Pixels</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:PixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:DimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:BinData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>acquisitioMode</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -280,10 +212,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:pixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>pixelType</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -298,14 +226,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:compression</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Compression</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>compression:none</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -339,6 +259,94 @@
   </si>
   <si>
     <t>bindata:bindata0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:PixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:dimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:binData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:bigEndian</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:compression</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Compression</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:data</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:length</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -755,122 +763,122 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -898,76 +906,76 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -987,7 +995,7 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.5" style="1" bestFit="1" customWidth="1"/>
@@ -996,42 +1004,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1046,84 +1054,84 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -1141,7 +1149,7 @@
         <v>2</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1159,38 +1167,38 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1200,54 +1208,54 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="F5" s="1">
         <v>12</v>
